--- a/data/trans_orig/P1803-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1803-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBA114D4-5285-4D56-979C-D644C0339BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{308586F6-6F81-4D00-89F4-E5A31C7D67B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A3CA8572-378B-447C-A917-547B4A565ADB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A9450EC3-8E81-453D-818C-A9677DF5686F}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="260">
   <si>
     <t>Población según si en los últimos 12 meses han visitado un fisioterapeuta en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>5,24%</t>
   </si>
   <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
   </si>
   <si>
     <t>4,81%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
   </si>
   <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>94,76%</t>
   </si>
   <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
   </si>
   <si>
     <t>95,19%</t>
   </si>
   <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
   </si>
   <si>
     <t>94,97%</t>
   </si>
   <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,625 +138,631 @@
     <t>4,5%</t>
   </si>
   <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
   </si>
   <si>
     <t>4,52%</t>
   </si>
   <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
   </si>
   <si>
     <t>95,48%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un fisioterapeuta en 2023 (Tasa respuesta: 99,93%)</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
   </si>
   <si>
     <t>7,21%</t>
   </si>
   <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
   </si>
   <si>
     <t>92,79%</t>
   </si>
   <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un fisioterapeuta en 2023 (Tasa respuesta: 99,93%)</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
     <t>12,33%</t>
   </si>
   <si>
-    <t>9,36%</t>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
   </si>
   <si>
     <t>15,14%</t>
   </si>
   <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
   </si>
   <si>
     <t>84,86%</t>
   </si>
   <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
+    <t>88,96%</t>
   </si>
   <si>
     <t>89,65%</t>
   </si>
   <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
   </si>
   <si>
     <t>4,88%</t>
   </si>
   <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
   </si>
   <si>
     <t>7,52%</t>
   </si>
   <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
   </si>
   <si>
     <t>6,45%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
+    <t>7,53%</t>
   </si>
   <si>
     <t>95,12%</t>
   </si>
   <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
   </si>
   <si>
     <t>92,48%</t>
   </si>
   <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
   </si>
   <si>
     <t>93,55%</t>
   </si>
   <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
+    <t>92,47%</t>
   </si>
   <si>
     <t>9,55%</t>
@@ -765,31 +771,31 @@
     <t>7,78%</t>
   </si>
   <si>
-    <t>14,53%</t>
+    <t>15,02%</t>
   </si>
   <si>
     <t>9,63%</t>
   </si>
   <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
   </si>
   <si>
     <t>9,59%</t>
   </si>
   <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
   </si>
   <si>
     <t>90,45%</t>
   </si>
   <si>
-    <t>85,47%</t>
+    <t>84,98%</t>
   </si>
   <si>
     <t>92,22%</t>
@@ -798,19 +804,19 @@
     <t>90,37%</t>
   </si>
   <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
   </si>
   <si>
     <t>90,41%</t>
   </si>
   <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
   </si>
 </sst>
 </file>
@@ -1222,7 +1228,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1BAFA0D-1AF9-4F31-B7DB-CF0BEE62CEF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101C42E3-3069-44F9-8919-5077E047CFD9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1889,7 +1895,7 @@
         <v>1125</v>
       </c>
       <c r="N14" s="7">
-        <v>1230024</v>
+        <v>1230025</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>27</v>
@@ -1940,7 +1946,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2002,7 +2008,7 @@
         <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2017,13 +2023,13 @@
         <v>455627</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>407</v>
@@ -2032,13 +2038,13 @@
         <v>465590</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>811</v>
@@ -2047,13 +2053,13 @@
         <v>921216</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2109,7 +2115,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2121,13 +2127,13 @@
         <v>13549</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>35</v>
@@ -2136,13 +2142,13 @@
         <v>41353</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>50</v>
@@ -2151,13 +2157,13 @@
         <v>54901</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2172,13 +2178,13 @@
         <v>577779</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>620</v>
@@ -2187,13 +2193,13 @@
         <v>736578</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>1232</v>
@@ -2202,13 +2208,13 @@
         <v>1314358</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2276,13 +2282,13 @@
         <v>155505</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>181</v>
@@ -2291,13 +2297,13 @@
         <v>195706</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>68</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="M22" s="7">
         <v>323</v>
@@ -2306,13 +2312,13 @@
         <v>351211</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2327,13 +2333,13 @@
         <v>3238845</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H23" s="7">
         <v>3157</v>
@@ -2342,10 +2348,10 @@
         <v>3348836</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>76</v>
@@ -2357,13 +2363,13 @@
         <v>6587681</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2419,7 +2425,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2441,7 +2447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB5D323-5F14-4149-AEBC-FC1F1DCFA99E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BEF1554-F3AD-4BBE-8812-ECA790BFBA69}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2458,7 +2464,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2565,13 +2571,13 @@
         <v>18515</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -2580,13 +2586,13 @@
         <v>16692</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -2598,10 +2604,10 @@
         <v>14</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,13 +2622,13 @@
         <v>359164</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H5" s="7">
         <v>197</v>
@@ -2631,13 +2637,13 @@
         <v>338265</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M5" s="7">
         <v>360</v>
@@ -2649,10 +2655,10 @@
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,13 +2726,13 @@
         <v>33043</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H7" s="7">
         <v>42</v>
@@ -2735,13 +2741,13 @@
         <v>52224</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -2750,13 +2756,13 @@
         <v>85267</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,13 +2777,13 @@
         <v>395353</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H8" s="7">
         <v>418</v>
@@ -2786,13 +2792,13 @@
         <v>446353</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M8" s="7">
         <v>697</v>
@@ -2801,13 +2807,13 @@
         <v>841706</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2875,13 +2881,13 @@
         <v>68735</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H10" s="7">
         <v>86</v>
@@ -2890,13 +2896,13 @@
         <v>62169</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M10" s="7">
         <v>147</v>
@@ -2905,13 +2911,13 @@
         <v>130904</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,13 +2932,13 @@
         <v>488517</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H11" s="7">
         <v>760</v>
@@ -2941,13 +2947,13 @@
         <v>521307</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M11" s="7">
         <v>1245</v>
@@ -2956,13 +2962,13 @@
         <v>1009823</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,13 +3036,13 @@
         <v>122494</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H13" s="7">
         <v>133</v>
@@ -3045,13 +3051,13 @@
         <v>80838</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M13" s="7">
         <v>200</v>
@@ -3060,13 +3066,13 @@
         <v>203332</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,13 +3087,13 @@
         <v>601496</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H14" s="7">
         <v>1008</v>
@@ -3096,28 +3102,28 @@
         <v>666423</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M14" s="7">
         <v>1606</v>
       </c>
       <c r="N14" s="7">
-        <v>1267920</v>
+        <v>1267919</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,7 +3165,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3185,13 +3191,13 @@
         <v>46421</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H16" s="7">
         <v>136</v>
@@ -3200,13 +3206,13 @@
         <v>77326</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M16" s="7">
         <v>188</v>
@@ -3215,13 +3221,13 @@
         <v>123747</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,13 +3242,13 @@
         <v>553736</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H17" s="7">
         <v>864</v>
@@ -3251,13 +3257,13 @@
         <v>518468</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M17" s="7">
         <v>1475</v>
@@ -3266,13 +3272,13 @@
         <v>1072204</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,7 +3334,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3340,13 +3346,13 @@
         <v>34084</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H19" s="7">
         <v>144</v>
@@ -3355,13 +3361,13 @@
         <v>77122</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M19" s="7">
         <v>195</v>
@@ -3370,13 +3376,13 @@
         <v>111207</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>229</v>
+        <v>125</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3388,16 +3394,16 @@
         <v>977</v>
       </c>
       <c r="D20" s="7">
-        <v>663670</v>
+        <v>663671</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H20" s="7">
         <v>1563</v>
@@ -3406,13 +3412,13 @@
         <v>948890</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M20" s="7">
         <v>2540</v>
@@ -3421,13 +3427,13 @@
         <v>1612560</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>239</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,7 +3445,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3495,13 +3501,13 @@
         <v>323291</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H22" s="7">
         <v>551</v>
@@ -3510,13 +3516,13 @@
         <v>366373</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M22" s="7">
         <v>814</v>
@@ -3525,13 +3531,13 @@
         <v>689664</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,13 +3552,13 @@
         <v>3061937</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H23" s="7">
         <v>4810</v>
@@ -3561,13 +3567,13 @@
         <v>3439705</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M23" s="7">
         <v>7923</v>
@@ -3576,13 +3582,13 @@
         <v>6501642</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,7 +3644,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1803-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1803-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{308586F6-6F81-4D00-89F4-E5A31C7D67B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A482B59-5E9C-4E35-8C1D-173F7B3D371D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A9450EC3-8E81-453D-818C-A9677DF5686F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ECBAB8BC-FBF4-4F89-B323-26001691F78E}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="260">
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un fisioterapeuta en 2015 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="256">
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un fisioterapeuta en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,7 +75,7 @@
     <t>5,24%</t>
   </si>
   <si>
-    <t>3,14%</t>
+    <t>3,29%</t>
   </si>
   <si>
     <t>7,8%</t>
@@ -84,19 +84,19 @@
     <t>4,81%</t>
   </si>
   <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
   </si>
   <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
   </si>
   <si>
     <t>No</t>
@@ -108,25 +108,25 @@
     <t>92,2%</t>
   </si>
   <si>
-    <t>96,86%</t>
+    <t>96,71%</t>
   </si>
   <si>
     <t>95,19%</t>
   </si>
   <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
   </si>
   <si>
     <t>94,97%</t>
   </si>
   <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>4,5%</t>
   </si>
   <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
   </si>
   <si>
     <t>7,12%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
   </si>
   <si>
     <t>5,78%</t>
   </si>
   <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
   </si>
   <si>
     <t>95,5%</t>
   </si>
   <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
   </si>
   <si>
     <t>92,88%</t>
   </si>
   <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
   </si>
   <si>
     <t>94,22%</t>
   </si>
   <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -195,49 +195,49 @@
     <t>6,0%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
   </si>
   <si>
     <t>5,25%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
   </si>
   <si>
     <t>94,0%</t>
   </si>
   <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
   </si>
   <si>
     <t>94,75%</t>
   </si>
   <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -246,49 +246,49 @@
     <t>4,79%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
   </si>
   <si>
     <t>5,26%</t>
   </si>
   <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
   </si>
   <si>
     <t>95,21%</t>
   </si>
   <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
   </si>
   <si>
     <t>94,74%</t>
   </si>
   <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -297,55 +297,49 @@
     <t>4,66%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
   </si>
   <si>
     <t>5,49%</t>
   </si>
   <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
   </si>
   <si>
     <t>95,34%</t>
   </si>
   <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
   </si>
   <si>
     <t>94,51%</t>
   </si>
   <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -354,97 +348,103 @@
     <t>2,29%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
   </si>
   <si>
     <t>5,32%</t>
   </si>
   <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
+    <t>7,15%</t>
   </si>
   <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>2,99%</t>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
   </si>
   <si>
     <t>97,71%</t>
   </si>
   <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
   </si>
   <si>
     <t>94,68%</t>
   </si>
   <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
+    <t>92,85%</t>
   </si>
   <si>
     <t>95,99%</t>
   </si>
   <si>
-    <t>97,01%</t>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
   </si>
   <si>
     <t>4,58%</t>
   </si>
   <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
   </si>
   <si>
     <t>5,52%</t>
   </si>
   <si>
-    <t>6,33%</t>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
   </si>
   <si>
     <t>5,06%</t>
   </si>
   <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
   </si>
   <si>
     <t>95,42%</t>
   </si>
   <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
   </si>
   <si>
     <t>94,48%</t>
   </si>
   <si>
-    <t>93,67%</t>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
   </si>
   <si>
     <t>94,94%</t>
   </si>
   <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -723,9 +723,6 @@
     <t>3,56%</t>
   </si>
   <si>
-    <t>6,28%</t>
-  </si>
-  <si>
     <t>7,52%</t>
   </si>
   <si>
@@ -744,9 +741,6 @@
     <t>95,12%</t>
   </si>
   <si>
-    <t>93,72%</t>
-  </si>
-  <si>
     <t>96,44%</t>
   </si>
   <si>
@@ -765,9 +759,6 @@
     <t>92,47%</t>
   </si>
   <si>
-    <t>9,55%</t>
-  </si>
-  <si>
     <t>7,78%</t>
   </si>
   <si>
@@ -790,9 +781,6 @@
   </si>
   <si>
     <t>11,99%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
   </si>
   <si>
     <t>84,98%</t>
@@ -1228,7 +1216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101C42E3-3069-44F9-8919-5077E047CFD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F957AF96-9310-4C94-A4A0-911FD2295143}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1895,7 +1883,7 @@
         <v>1125</v>
       </c>
       <c r="N14" s="7">
-        <v>1230025</v>
+        <v>1230024</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>27</v>
@@ -1946,7 +1934,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1987,13 +1975,13 @@
         <v>31259</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
@@ -2002,13 +1990,13 @@
         <v>53551</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2023,13 +2011,13 @@
         <v>455627</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>407</v>
@@ -2038,13 +2026,13 @@
         <v>465590</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>811</v>
@@ -2053,13 +2041,13 @@
         <v>921216</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2115,7 +2103,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2127,13 +2115,13 @@
         <v>13549</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>35</v>
@@ -2142,13 +2130,13 @@
         <v>41353</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M19" s="7">
         <v>50</v>
@@ -2157,13 +2145,13 @@
         <v>54901</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2178,13 +2166,13 @@
         <v>577779</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>620</v>
@@ -2193,13 +2181,13 @@
         <v>736578</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="M20" s="7">
         <v>1232</v>
@@ -2208,13 +2196,13 @@
         <v>1314358</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2282,13 +2270,13 @@
         <v>155505</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>181</v>
@@ -2297,13 +2285,13 @@
         <v>195706</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M22" s="7">
         <v>323</v>
@@ -2312,13 +2300,13 @@
         <v>351211</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2333,13 +2321,13 @@
         <v>3238845</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H23" s="7">
         <v>3157</v>
@@ -2348,13 +2336,13 @@
         <v>3348836</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M23" s="7">
         <v>6246</v>
@@ -2447,7 +2435,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BEF1554-F3AD-4BBE-8812-ECA790BFBA69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587E3AB8-25D8-417F-ABBC-8BBEECF50891}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3334,7 +3322,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3352,7 +3340,7 @@
         <v>227</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>228</v>
+        <v>123</v>
       </c>
       <c r="H19" s="7">
         <v>144</v>
@@ -3361,13 +3349,13 @@
         <v>77122</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M19" s="7">
         <v>195</v>
@@ -3376,13 +3364,13 @@
         <v>111207</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,13 +3385,13 @@
         <v>663671</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H20" s="7">
         <v>1563</v>
@@ -3412,13 +3400,13 @@
         <v>948890</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M20" s="7">
         <v>2540</v>
@@ -3427,10 +3415,10 @@
         <v>1612560</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>133</v>
@@ -3501,13 +3489,13 @@
         <v>323291</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>242</v>
+        <v>37</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H22" s="7">
         <v>551</v>
@@ -3516,13 +3504,13 @@
         <v>366373</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M22" s="7">
         <v>814</v>
@@ -3531,13 +3519,13 @@
         <v>689664</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,13 +3540,13 @@
         <v>3061937</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>251</v>
+        <v>45</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H23" s="7">
         <v>4810</v>
@@ -3567,13 +3555,13 @@
         <v>3439705</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M23" s="7">
         <v>7923</v>
@@ -3582,13 +3570,13 @@
         <v>6501642</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1803-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1803-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29417314-FACF-48AB-BB59-79AFE16F7CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3301ADD-2FE0-4797-A249-D175D7BCC4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5C41C216-4276-41C5-9DCD-1DB5FECD043E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B01EE25B-0BD2-4EB0-A856-346A1CAC7516}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="374">
   <si>
     <t>Población según si en los últimos 12 meses han visitado un fisioterapeuta en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>991.0</t>
@@ -110,7 +110,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>99,73%</t>
@@ -131,7 +131,7 @@
     <t>0,15%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>99,69%</t>
@@ -146,7 +146,7 @@
     <t>0,29%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>99,6%</t>
@@ -155,7 +155,7 @@
     <t>0,4%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>99,51%</t>
@@ -176,261 +176,303 @@
     <t>0,24%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un fisioterapeuta en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un fisioterapeuta en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un fisioterapeuta en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un fisioterapeuta en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
     <t>4,79%</t>
   </si>
   <si>
@@ -530,52 +572,115 @@
     <t>95,83%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
   </si>
   <si>
     <t>4,58%</t>
@@ -632,346 +737,370 @@
     <t>0,51%</t>
   </si>
   <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
     <t>4,9%</t>
   </si>
   <si>
-    <t>2,01%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
   </si>
   <si>
     <t>9,28%</t>
   </si>
   <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
   </si>
   <si>
     <t>90,72%</t>
   </si>
   <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
   </si>
   <si>
     <t>0,04%</t>
@@ -980,58 +1109,58 @@
     <t>0,02%</t>
   </si>
   <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
   </si>
 </sst>
 </file>
@@ -1443,8 +1572,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A26B91-812D-45AF-B3D0-453CEC30E541}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3226CE-799C-42B0-A878-62037559A03B}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2591,10 +2720,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D24" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>11</v>
@@ -2606,31 +2735,31 @@
         <v>13</v>
       </c>
       <c r="H24" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I24" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M24" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N24" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>13</v>
@@ -2654,7 +2783,7 @@
         <v>18</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2669,7 +2798,7 @@
         <v>18</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -2684,7 +2813,7 @@
         <v>18</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2720,7 +2849,7 @@
         <v>18</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2735,7 +2864,7 @@
         <v>18</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,10 +2873,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D27" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>13</v>
@@ -2759,10 +2888,10 @@
         <v>13</v>
       </c>
       <c r="H27" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I27" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>13</v>
@@ -2774,10 +2903,10 @@
         <v>13</v>
       </c>
       <c r="M27" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N27" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>13</v>
@@ -2791,52 +2920,52 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>3214</v>
+        <v>220</v>
       </c>
       <c r="D28" s="7">
-        <v>3276544</v>
+        <v>209883</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H28" s="7">
-        <v>3297</v>
+        <v>290</v>
       </c>
       <c r="I28" s="7">
-        <v>3379198</v>
+        <v>333908</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M28" s="7">
-        <v>6511</v>
+        <v>510</v>
       </c>
       <c r="N28" s="7">
-        <v>6655740</v>
+        <v>543791</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>13</v>
@@ -2860,7 +2989,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2875,7 +3004,7 @@
         <v>18</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -2890,7 +3019,7 @@
         <v>18</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,7 +3040,7 @@
         <v>18</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2926,7 +3055,7 @@
         <v>18</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2941,7 +3070,7 @@
         <v>18</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2950,63 +3079,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>220</v>
+      </c>
+      <c r="D31" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="7">
+        <v>290</v>
+      </c>
+      <c r="I31" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="7">
+        <v>510</v>
+      </c>
+      <c r="N31" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
         <v>3214</v>
       </c>
-      <c r="D31" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D32" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="7">
         <v>3297</v>
       </c>
-      <c r="I31" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I32" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M32" s="7">
         <v>6511</v>
       </c>
-      <c r="N31" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>54</v>
+      <c r="N32" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
+        <v>3214</v>
+      </c>
+      <c r="D35" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="7">
+        <v>3297</v>
+      </c>
+      <c r="I35" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="7">
+        <v>6511</v>
+      </c>
+      <c r="N35" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3019,8 +3355,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D3091BC-B41C-4A02-A521-BC1260FB0F4E}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDBE2FC-BB58-42F9-B6FC-AD8AD59F6E45}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3036,7 +3372,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3146,7 +3482,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -3161,7 +3497,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -3176,7 +3512,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -3200,7 +3536,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3215,7 +3551,7 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3230,7 +3566,7 @@
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,7 +3587,7 @@
         <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3266,7 +3602,7 @@
         <v>18</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3281,7 +3617,7 @@
         <v>18</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,7 +3703,7 @@
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
@@ -3421,7 +3757,7 @@
         <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3472,7 +3808,7 @@
         <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3764,7 +4100,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -3779,7 +4115,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -3794,7 +4130,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3818,7 +4154,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3833,7 +4169,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3848,7 +4184,7 @@
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,7 +4205,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -3884,7 +4220,7 @@
         <v>18</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -3899,7 +4235,7 @@
         <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3985,7 +4321,7 @@
         <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>13</v>
@@ -4039,7 +4375,7 @@
         <v>18</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -4090,7 +4426,7 @@
         <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4167,46 +4503,46 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D24" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H24" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I24" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M24" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N24" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>13</v>
@@ -4230,7 +4566,7 @@
         <v>18</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4245,7 +4581,7 @@
         <v>18</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -4260,7 +4596,7 @@
         <v>18</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4281,7 +4617,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4296,7 +4632,7 @@
         <v>18</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -4311,7 +4647,7 @@
         <v>18</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,10 +4656,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D27" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>13</v>
@@ -4335,10 +4671,10 @@
         <v>13</v>
       </c>
       <c r="H27" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I27" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>13</v>
@@ -4350,10 +4686,10 @@
         <v>13</v>
       </c>
       <c r="M27" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N27" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>13</v>
@@ -4367,52 +4703,52 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>3209</v>
+        <v>222</v>
       </c>
       <c r="D28" s="7">
-        <v>3426779</v>
+        <v>249851</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H28" s="7">
-        <v>3298</v>
+        <v>350</v>
       </c>
       <c r="I28" s="7">
-        <v>3558309</v>
+        <v>388979</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M28" s="7">
-        <v>6507</v>
+        <v>572</v>
       </c>
       <c r="N28" s="7">
-        <v>6985088</v>
+        <v>638830</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>13</v>
@@ -4436,7 +4772,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -4451,7 +4787,7 @@
         <v>18</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -4466,7 +4802,7 @@
         <v>18</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,7 +4823,7 @@
         <v>18</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -4502,7 +4838,7 @@
         <v>18</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -4517,7 +4853,7 @@
         <v>18</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,63 +4862,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>222</v>
+      </c>
+      <c r="D31" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="7">
+        <v>350</v>
+      </c>
+      <c r="I31" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="7">
+        <v>572</v>
+      </c>
+      <c r="N31" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
         <v>3209</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D32" s="7">
         <v>3426779</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="7">
         <v>3298</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I32" s="7">
         <v>3558309</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M32" s="7">
         <v>6507</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N32" s="7">
         <v>6985088</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>54</v>
+      <c r="O32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
+        <v>3209</v>
+      </c>
+      <c r="D35" s="7">
+        <v>3426779</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="7">
+        <v>3298</v>
+      </c>
+      <c r="I35" s="7">
+        <v>3558309</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="7">
+        <v>6507</v>
+      </c>
+      <c r="N35" s="7">
+        <v>6985088</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4595,8 +5138,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F2BF53-26B3-45C6-9473-8BDAB1508749}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79FF3EE3-B036-4C9C-A66B-A9FF9640630E}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4612,7 +5155,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4740,7 +5283,7 @@
         <v>18</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4770,13 +5313,13 @@
         <v>21981</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -4785,13 +5328,13 @@
         <v>19051</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="M5" s="7">
         <v>38</v>
@@ -4800,13 +5343,13 @@
         <v>41032</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4821,13 +5364,13 @@
         <v>397482</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="H6" s="7">
         <v>385</v>
@@ -4836,13 +5379,13 @@
         <v>376704</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="M6" s="7">
         <v>759</v>
@@ -4851,13 +5394,13 @@
         <v>774186</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,7 +5474,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4946,7 +5489,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4961,7 +5504,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,13 +5519,13 @@
         <v>26576</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="H9" s="7">
         <v>40</v>
@@ -4991,13 +5534,13 @@
         <v>40138</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="M9" s="7">
         <v>64</v>
@@ -5006,13 +5549,13 @@
         <v>66714</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,13 +5570,13 @@
         <v>563920</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="H10" s="7">
         <v>539</v>
@@ -5042,13 +5585,13 @@
         <v>523406</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="M10" s="7">
         <v>1082</v>
@@ -5057,13 +5600,13 @@
         <v>1087326</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5137,7 +5680,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5182,13 +5725,13 @@
         <v>40137</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -5197,13 +5740,13 @@
         <v>29776</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -5212,13 +5755,13 @@
         <v>69913</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5233,13 +5776,13 @@
         <v>628960</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="H14" s="7">
         <v>636</v>
@@ -5248,13 +5791,13 @@
         <v>631610</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="M14" s="7">
         <v>1237</v>
@@ -5263,13 +5806,13 @@
         <v>1260570</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,7 +5886,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5373,7 +5916,7 @@
         <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5388,13 +5931,13 @@
         <v>30971</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -5403,13 +5946,13 @@
         <v>34129</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="M17" s="7">
         <v>59</v>
@@ -5418,13 +5961,13 @@
         <v>65101</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,13 +5982,13 @@
         <v>615077</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="H18" s="7">
         <v>570</v>
@@ -5454,13 +5997,13 @@
         <v>614948</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="M18" s="7">
         <v>1125</v>
@@ -5469,13 +6012,13 @@
         <v>1230024</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5549,7 +6092,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5564,7 +6107,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5579,7 +6122,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5594,13 +6137,13 @@
         <v>22291</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="H21" s="7">
         <v>26</v>
@@ -5609,13 +6152,13 @@
         <v>31259</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="M21" s="7">
         <v>46</v>
@@ -5624,13 +6167,13 @@
         <v>53551</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5645,13 +6188,13 @@
         <v>455627</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="H22" s="7">
         <v>407</v>
@@ -5660,13 +6203,13 @@
         <v>465590</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="M22" s="7">
         <v>811</v>
@@ -5675,13 +6218,13 @@
         <v>921216</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5755,7 +6298,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>33</v>
+        <v>177</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5770,7 +6313,7 @@
         <v>18</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5785,7 +6328,7 @@
         <v>18</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,49 +6337,49 @@
         <v>16</v>
       </c>
       <c r="C25" s="7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D25" s="7">
-        <v>13549</v>
+        <v>6866</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="H25" s="7">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I25" s="7">
-        <v>41353</v>
+        <v>26327</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="M25" s="7">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N25" s="7">
-        <v>54901</v>
+        <v>33192</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,49 +6388,49 @@
         <v>22</v>
       </c>
       <c r="C26" s="7">
-        <v>612</v>
+        <v>318</v>
       </c>
       <c r="D26" s="7">
-        <v>577779</v>
+        <v>327464</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
-        <v>620</v>
+        <v>331</v>
       </c>
       <c r="I26" s="7">
-        <v>736578</v>
+        <v>351435</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="M26" s="7">
-        <v>1232</v>
+        <v>649</v>
       </c>
       <c r="N26" s="7">
-        <v>1314358</v>
+        <v>678900</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5896,10 +6439,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D27" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>13</v>
@@ -5911,10 +6454,10 @@
         <v>13</v>
       </c>
       <c r="H27" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I27" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>13</v>
@@ -5926,10 +6469,10 @@
         <v>13</v>
       </c>
       <c r="M27" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N27" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>13</v>
@@ -5943,7 +6486,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5961,7 +6504,7 @@
         <v>18</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5976,7 +6519,7 @@
         <v>18</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>52</v>
+        <v>195</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -5991,7 +6534,7 @@
         <v>18</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6000,49 +6543,49 @@
         <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>142</v>
+        <v>8</v>
       </c>
       <c r="D29" s="7">
-        <v>155505</v>
+        <v>6683</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="H29" s="7">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="I29" s="7">
-        <v>195706</v>
+        <v>15026</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="M29" s="7">
-        <v>323</v>
+        <v>20</v>
       </c>
       <c r="N29" s="7">
-        <v>351211</v>
+        <v>21709</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6051,49 +6594,49 @@
         <v>22</v>
       </c>
       <c r="C30" s="7">
-        <v>3089</v>
+        <v>294</v>
       </c>
       <c r="D30" s="7">
-        <v>3238845</v>
+        <v>250315</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="H30" s="7">
-        <v>3157</v>
+        <v>289</v>
       </c>
       <c r="I30" s="7">
-        <v>3348836</v>
+        <v>385143</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>138</v>
+        <v>210</v>
       </c>
       <c r="M30" s="7">
-        <v>6246</v>
+        <v>583</v>
       </c>
       <c r="N30" s="7">
-        <v>6587681</v>
+        <v>635458</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6102,63 +6645,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>302</v>
+      </c>
+      <c r="D31" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="7">
+        <v>301</v>
+      </c>
+      <c r="I31" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="7">
+        <v>603</v>
+      </c>
+      <c r="N31" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="7">
+        <v>142</v>
+      </c>
+      <c r="D33" s="7">
+        <v>155505</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H33" s="7">
+        <v>181</v>
+      </c>
+      <c r="I33" s="7">
+        <v>195706</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="M33" s="7">
+        <v>323</v>
+      </c>
+      <c r="N33" s="7">
+        <v>351211</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="7">
+        <v>3089</v>
+      </c>
+      <c r="D34" s="7">
+        <v>3238845</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H34" s="7">
+        <v>3157</v>
+      </c>
+      <c r="I34" s="7">
+        <v>3348836</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="M34" s="7">
+        <v>6246</v>
+      </c>
+      <c r="N34" s="7">
+        <v>6587681</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3231</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3394350</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="7">
         <v>3338</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3544542</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="7">
         <v>6569</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>6938892</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>54</v>
+      <c r="O35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -6171,8 +6921,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E061F0D-262F-4593-97EF-C3B058E91CEB}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E3E144-9CF8-4FAD-8E0A-4DE5142F9A10}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6188,7 +6938,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6301,7 +7051,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6316,7 +7066,7 @@
         <v>18</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6331,7 +7081,7 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>196</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6343,46 +7093,46 @@
         <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>18515</v>
+        <v>19376</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
       </c>
       <c r="I5" s="7">
-        <v>16692</v>
+        <v>15334</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
       </c>
       <c r="N5" s="7">
-        <v>35207</v>
+        <v>34710</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6394,46 +7144,46 @@
         <v>163</v>
       </c>
       <c r="D6" s="7">
-        <v>359164</v>
+        <v>380611</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="H6" s="7">
         <v>197</v>
       </c>
       <c r="I6" s="7">
-        <v>338265</v>
+        <v>297866</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="M6" s="7">
         <v>360</v>
       </c>
       <c r="N6" s="7">
-        <v>697429</v>
+        <v>678477</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>87</v>
+        <v>247</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6445,7 +7195,7 @@
         <v>172</v>
       </c>
       <c r="D7" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -6460,7 +7210,7 @@
         <v>207</v>
       </c>
       <c r="I7" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -6475,7 +7225,7 @@
         <v>379</v>
       </c>
       <c r="N7" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -6507,7 +7257,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>213</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6522,7 +7272,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6537,7 +7287,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6549,46 +7299,46 @@
         <v>23</v>
       </c>
       <c r="D9" s="7">
-        <v>33043</v>
+        <v>33534</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="H9" s="7">
         <v>42</v>
       </c>
       <c r="I9" s="7">
-        <v>52224</v>
+        <v>50801</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="M9" s="7">
         <v>65</v>
       </c>
       <c r="N9" s="7">
-        <v>85267</v>
+        <v>84335</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6600,46 +7350,46 @@
         <v>279</v>
       </c>
       <c r="D10" s="7">
-        <v>395353</v>
+        <v>390013</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="H10" s="7">
         <v>418</v>
       </c>
       <c r="I10" s="7">
-        <v>446353</v>
+        <v>460703</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="M10" s="7">
         <v>697</v>
       </c>
       <c r="N10" s="7">
-        <v>841706</v>
+        <v>850716</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6651,7 +7401,7 @@
         <v>302</v>
       </c>
       <c r="D11" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -6666,7 +7416,7 @@
         <v>460</v>
       </c>
       <c r="I11" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -6681,7 +7431,7 @@
         <v>762</v>
       </c>
       <c r="N11" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -6713,7 +7463,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6728,7 +7478,7 @@
         <v>18</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6743,7 +7493,7 @@
         <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6755,46 +7505,46 @@
         <v>61</v>
       </c>
       <c r="D13" s="7">
-        <v>68735</v>
+        <v>69512</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="H13" s="7">
         <v>86</v>
       </c>
       <c r="I13" s="7">
-        <v>62169</v>
+        <v>59628</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="M13" s="7">
         <v>147</v>
       </c>
       <c r="N13" s="7">
-        <v>130904</v>
+        <v>129140</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6806,46 +7556,46 @@
         <v>485</v>
       </c>
       <c r="D14" s="7">
-        <v>488517</v>
+        <v>466826</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="H14" s="7">
         <v>760</v>
       </c>
       <c r="I14" s="7">
-        <v>521307</v>
+        <v>482840</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="M14" s="7">
         <v>1245</v>
       </c>
       <c r="N14" s="7">
-        <v>1009823</v>
+        <v>949666</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6857,7 +7607,7 @@
         <v>546</v>
       </c>
       <c r="D15" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -6872,7 +7622,7 @@
         <v>846</v>
       </c>
       <c r="I15" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -6887,7 +7637,7 @@
         <v>1392</v>
       </c>
       <c r="N15" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -6934,7 +7684,7 @@
         <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6949,7 +7699,7 @@
         <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6961,46 +7711,46 @@
         <v>67</v>
       </c>
       <c r="D17" s="7">
-        <v>122494</v>
+        <v>314059</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="H17" s="7">
         <v>133</v>
       </c>
       <c r="I17" s="7">
-        <v>80838</v>
+        <v>76588</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="M17" s="7">
         <v>200</v>
       </c>
       <c r="N17" s="7">
-        <v>203332</v>
+        <v>390647</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7012,46 +7762,46 @@
         <v>598</v>
       </c>
       <c r="D18" s="7">
-        <v>601496</v>
+        <v>573727</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="H18" s="7">
         <v>1008</v>
       </c>
       <c r="I18" s="7">
-        <v>666423</v>
+        <v>636293</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="M18" s="7">
         <v>1606</v>
       </c>
       <c r="N18" s="7">
-        <v>1267920</v>
+        <v>1210020</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7063,7 +7813,7 @@
         <v>665</v>
       </c>
       <c r="D19" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -7078,7 +7828,7 @@
         <v>1141</v>
       </c>
       <c r="I19" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -7093,7 +7843,7 @@
         <v>1806</v>
       </c>
       <c r="N19" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -7155,7 +7905,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7167,46 +7917,46 @@
         <v>52</v>
       </c>
       <c r="D21" s="7">
-        <v>46421</v>
+        <v>45456</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="H21" s="7">
         <v>136</v>
       </c>
       <c r="I21" s="7">
-        <v>77326</v>
+        <v>72436</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="M21" s="7">
         <v>188</v>
       </c>
       <c r="N21" s="7">
-        <v>123747</v>
+        <v>117893</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7218,46 +7968,46 @@
         <v>611</v>
       </c>
       <c r="D22" s="7">
-        <v>553736</v>
+        <v>515778</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="H22" s="7">
         <v>864</v>
       </c>
       <c r="I22" s="7">
-        <v>518468</v>
+        <v>474288</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="M22" s="7">
         <v>1475</v>
       </c>
       <c r="N22" s="7">
-        <v>1072204</v>
+        <v>990065</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7269,7 +8019,7 @@
         <v>663</v>
       </c>
       <c r="D23" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -7284,7 +8034,7 @@
         <v>1000</v>
       </c>
       <c r="I23" s="7">
-        <v>595794</v>
+        <v>546724</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -7299,7 +8049,7 @@
         <v>1663</v>
       </c>
       <c r="N23" s="7">
-        <v>1195951</v>
+        <v>1107958</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -7331,7 +8081,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7346,7 +8096,7 @@
         <v>18</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7361,7 +8111,7 @@
         <v>18</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7370,49 +8120,49 @@
         <v>16</v>
       </c>
       <c r="C25" s="7">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D25" s="7">
-        <v>34084</v>
+        <v>23682</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>294</v>
+        <v>219</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="H25" s="7">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="I25" s="7">
-        <v>77122</v>
+        <v>43495</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="M25" s="7">
-        <v>195</v>
+        <v>125</v>
       </c>
       <c r="N25" s="7">
-        <v>111207</v>
+        <v>67177</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7421,49 +8171,49 @@
         <v>22</v>
       </c>
       <c r="C26" s="7">
-        <v>977</v>
+        <v>533</v>
       </c>
       <c r="D26" s="7">
-        <v>663670</v>
+        <v>344483</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>304</v>
+        <v>227</v>
       </c>
       <c r="H26" s="7">
-        <v>1563</v>
+        <v>739</v>
       </c>
       <c r="I26" s="7">
-        <v>948890</v>
+        <v>564873</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>306</v>
+        <v>335</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>307</v>
+        <v>336</v>
       </c>
       <c r="M26" s="7">
-        <v>2540</v>
+        <v>1272</v>
       </c>
       <c r="N26" s="7">
-        <v>1612560</v>
+        <v>909356</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>309</v>
+        <v>338</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>310</v>
+        <v>339</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7472,10 +8222,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D27" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>13</v>
@@ -7487,10 +8237,10 @@
         <v>13</v>
       </c>
       <c r="H27" s="7">
-        <v>1707</v>
+        <v>827</v>
       </c>
       <c r="I27" s="7">
-        <v>1026012</v>
+        <v>608368</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>13</v>
@@ -7502,10 +8252,10 @@
         <v>13</v>
       </c>
       <c r="M27" s="7">
-        <v>2735</v>
+        <v>1397</v>
       </c>
       <c r="N27" s="7">
-        <v>1723767</v>
+        <v>976533</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>13</v>
@@ -7519,7 +8269,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7537,7 +8287,7 @@
         <v>18</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>52</v>
+        <v>250</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7552,7 +8302,7 @@
         <v>18</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>311</v>
+        <v>68</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -7567,7 +8317,7 @@
         <v>18</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7576,49 +8326,49 @@
         <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>263</v>
+        <v>14</v>
       </c>
       <c r="D29" s="7">
-        <v>323291</v>
+        <v>8888</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="H29" s="7">
-        <v>551</v>
+        <v>56</v>
       </c>
       <c r="I29" s="7">
-        <v>366373</v>
+        <v>27609</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>317</v>
+        <v>235</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="M29" s="7">
-        <v>814</v>
+        <v>70</v>
       </c>
       <c r="N29" s="7">
-        <v>689664</v>
+        <v>36497</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>320</v>
+        <v>168</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7627,49 +8377,49 @@
         <v>22</v>
       </c>
       <c r="C30" s="7">
-        <v>3113</v>
+        <v>444</v>
       </c>
       <c r="D30" s="7">
-        <v>3061937</v>
+        <v>273871</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="H30" s="7">
-        <v>4810</v>
+        <v>824</v>
       </c>
       <c r="I30" s="7">
-        <v>3439705</v>
+        <v>397656</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>327</v>
+        <v>244</v>
       </c>
       <c r="M30" s="7">
-        <v>7923</v>
+        <v>1268</v>
       </c>
       <c r="N30" s="7">
-        <v>6501642</v>
+        <v>671527</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>330</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7678,63 +8428,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>458</v>
+      </c>
+      <c r="D31" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="7">
+        <v>880</v>
+      </c>
+      <c r="I31" s="7">
+        <v>425265</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1338</v>
+      </c>
+      <c r="N31" s="7">
+        <v>708024</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="7">
+        <v>263</v>
+      </c>
+      <c r="D33" s="7">
+        <v>514507</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="H33" s="7">
+        <v>551</v>
+      </c>
+      <c r="I33" s="7">
+        <v>345891</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="M33" s="7">
+        <v>814</v>
+      </c>
+      <c r="N33" s="7">
+        <v>860399</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="7">
+        <v>3113</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2945310</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="H34" s="7">
+        <v>4810</v>
+      </c>
+      <c r="I34" s="7">
+        <v>3314519</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="M34" s="7">
+        <v>7923</v>
+      </c>
+      <c r="N34" s="7">
+        <v>6259828</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3376</v>
       </c>
-      <c r="D31" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="7">
         <v>5361</v>
       </c>
-      <c r="I31" s="7">
-        <v>3806078</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>3660410</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="7">
         <v>8737</v>
       </c>
-      <c r="N31" s="7">
-        <v>7191306</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>54</v>
+      <c r="N35" s="7">
+        <v>7120227</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
